--- a/Code/Results/Cases/Case_3_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4801662695384579</v>
+        <v>0.207740021159978</v>
       </c>
       <c r="C2">
-        <v>0.1845510994207729</v>
+        <v>0.07138426719774316</v>
       </c>
       <c r="D2">
-        <v>0.07892207081620128</v>
+        <v>0.07822539573563958</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.531014208339727</v>
+        <v>1.975242548751197</v>
       </c>
       <c r="G2">
-        <v>0.0008163800943159601</v>
+        <v>0.002497474496949351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.739934119896901</v>
+        <v>1.454922415997771</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6607852963277452</v>
+        <v>0.2762287863254613</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.715383008591502</v>
+        <v>0.8747708651403912</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4142787783972324</v>
+        <v>0.1926987310756374</v>
       </c>
       <c r="C3">
-        <v>0.1590173715289467</v>
+        <v>0.0648006365577487</v>
       </c>
       <c r="D3">
-        <v>0.07771025726924208</v>
+        <v>0.07726863338877976</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.294209728407367</v>
+        <v>1.910881208053169</v>
       </c>
       <c r="G3">
-        <v>0.0008235448377058949</v>
+        <v>0.002501552774949083</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.596335910480818</v>
+        <v>1.414535883213702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.56969468417293</v>
+        <v>0.2545466487636077</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.306234756219339</v>
+        <v>0.7795375386244814</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.374257871444442</v>
+        <v>0.183657522759006</v>
       </c>
       <c r="C4">
-        <v>0.1435971335218369</v>
+        <v>0.06080015844587194</v>
       </c>
       <c r="D4">
-        <v>0.07695831576225132</v>
+        <v>0.07666336017735631</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.152182435752835</v>
+        <v>1.871942619282279</v>
       </c>
       <c r="G4">
-        <v>0.0008280402644922738</v>
+        <v>0.002504185139496538</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.510277153465722</v>
+        <v>1.390061805340309</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5144681997592357</v>
+        <v>0.2414623004129623</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.064707443000302</v>
+        <v>0.7216214757522437</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3580429814476105</v>
+        <v>0.1800220338877381</v>
       </c>
       <c r="C5">
-        <v>0.1373688853021093</v>
+        <v>0.0591803688082706</v>
       </c>
       <c r="D5">
-        <v>0.07664947536427746</v>
+        <v>0.07641218749699874</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.095053059293491</v>
+        <v>1.856219263163609</v>
       </c>
       <c r="G5">
-        <v>0.0008298983281344572</v>
+        <v>0.00250529022452832</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.475675544137019</v>
+        <v>1.380168816971207</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4921151820865788</v>
+        <v>0.2361877269576809</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.96829346211814</v>
+        <v>0.6981536937958168</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3553557579989359</v>
+        <v>0.1794213171338015</v>
       </c>
       <c r="C6">
-        <v>0.1363377964175498</v>
+        <v>0.05891203155870528</v>
       </c>
       <c r="D6">
-        <v>0.07659803459299042</v>
+        <v>0.07637020639829473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.085609203751105</v>
+        <v>1.853617097813583</v>
       </c>
       <c r="G6">
-        <v>0.0008302084894858815</v>
+        <v>0.002505475682127707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.469956521302365</v>
+        <v>1.3785309225606</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4884119861210507</v>
+        <v>0.2353153532133234</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.952394161450144</v>
+        <v>0.6942647544121598</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.374038830822073</v>
+        <v>0.1836082953229266</v>
       </c>
       <c r="C7">
-        <v>0.1435129234867532</v>
+        <v>0.06077827126351565</v>
       </c>
       <c r="D7">
-        <v>0.07695416097162422</v>
+        <v>0.07665999112296262</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.151409065763943</v>
+        <v>1.871729985490433</v>
       </c>
       <c r="G7">
-        <v>0.0008280652147630895</v>
+        <v>0.002504199911960844</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.509808687548016</v>
+        <v>1.389928060736551</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5141661541486826</v>
+        <v>0.2413909333300666</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.063399547131738</v>
+        <v>0.7213044493649647</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4573486391283978</v>
+        <v>0.2025134959385753</v>
       </c>
       <c r="C8">
-        <v>0.1756878452601143</v>
+        <v>0.06910547405195189</v>
       </c>
       <c r="D8">
-        <v>0.07850559829495651</v>
+        <v>0.07789917870008267</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.448600825317257</v>
+        <v>1.952929673337707</v>
       </c>
       <c r="G8">
-        <v>0.000818831763262637</v>
+        <v>0.002498854132413942</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.689943397170381</v>
+        <v>1.440929441060533</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6292157982421429</v>
+        <v>0.268705292867665</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.572018404180639</v>
+        <v>0.8418145750396206</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6249073023672054</v>
+        <v>0.2411281542447909</v>
       </c>
       <c r="C9">
-        <v>0.2412875870807909</v>
+        <v>0.08577288742792177</v>
       </c>
       <c r="D9">
-        <v>0.08150752175286158</v>
+        <v>0.08018963292175485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.063280145508543</v>
+        <v>2.116827909142074</v>
       </c>
       <c r="G9">
-        <v>0.0008013866639305029</v>
+        <v>0.002489383588680242</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.063171060884287</v>
+        <v>1.54355657612156</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8616288190884802</v>
+        <v>0.3240890312779925</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.669992880018029</v>
+        <v>1.082878266118101</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.751677757163236</v>
+        <v>0.2704428777697103</v>
       </c>
       <c r="C10">
-        <v>0.2917404327639019</v>
+        <v>0.09823313525791377</v>
       </c>
       <c r="D10">
-        <v>0.08372383611893497</v>
+        <v>0.08178985892502766</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.54269623452285</v>
+        <v>2.240195223965088</v>
       </c>
       <c r="G10">
-        <v>0.0007888010637851963</v>
+        <v>0.002483035282242159</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.354847919264728</v>
+        <v>1.620623701656058</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.038396194449291</v>
+        <v>0.365903628074534</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.58067987851102</v>
+        <v>1.263346007126316</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8104080548865227</v>
+        <v>0.2839853127052834</v>
       </c>
       <c r="C11">
-        <v>0.3153748475446889</v>
+        <v>0.1039502415716527</v>
       </c>
       <c r="D11">
-        <v>0.08474401670446952</v>
+        <v>0.08250045808006234</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.769153297588616</v>
+        <v>2.296983085935977</v>
       </c>
       <c r="G11">
-        <v>0.0007830754760710049</v>
+        <v>0.002480278044737905</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.492801646971188</v>
+        <v>1.656061969382449</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.120581174259456</v>
+        <v>0.3851737759308946</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.031197561469426</v>
+        <v>1.346279421759206</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8328230662573048</v>
+        <v>0.2891432857897769</v>
       </c>
       <c r="C12">
-        <v>0.3244417774920691</v>
+        <v>0.1061223257828203</v>
       </c>
       <c r="D12">
-        <v>0.08513302523281396</v>
+        <v>0.08276709027388307</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.856352212090599</v>
+        <v>2.318584842779785</v>
       </c>
       <c r="G12">
-        <v>0.0007809017559885175</v>
+        <v>0.002479252611795422</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.545952843656565</v>
+        <v>1.669537347764333</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.151999910024983</v>
+        <v>0.3925067990026889</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.208626653950574</v>
+        <v>1.37781308657074</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.827987442452752</v>
+        <v>0.2880311013108212</v>
       </c>
       <c r="C13">
-        <v>0.3224835107904767</v>
+        <v>0.1056542092252926</v>
       </c>
       <c r="D13">
-        <v>0.0850491083643945</v>
+        <v>0.08270977488546549</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.837503699593356</v>
+        <v>2.313928161625199</v>
       </c>
       <c r="G13">
-        <v>0.00078137025735181</v>
+        <v>0.002479472628293892</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.534462440513565</v>
+        <v>1.666632691278949</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.145219399331125</v>
+        <v>0.3909259057083716</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.170078754623674</v>
+        <v>1.37101589742781</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8122485116019504</v>
+        <v>0.2844090661969574</v>
       </c>
       <c r="C14">
-        <v>0.3161183236936438</v>
+        <v>0.1041287965007029</v>
       </c>
       <c r="D14">
-        <v>0.08477596060656367</v>
+        <v>0.08252244307755063</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.776296682095619</v>
+        <v>2.298758314549787</v>
       </c>
       <c r="G14">
-        <v>0.0007828967913822429</v>
+        <v>0.002480193308198546</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.497155165103436</v>
+        <v>1.65716947513593</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.12315980393916</v>
+        <v>0.385776349314142</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.04564670884352</v>
+        <v>1.348871091118397</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.802631442013336</v>
+        <v>0.2821943384316228</v>
       </c>
       <c r="C15">
-        <v>0.3122353230122599</v>
+        <v>0.1031953703673594</v>
       </c>
       <c r="D15">
-        <v>0.08460903158123045</v>
+        <v>0.08240737820682398</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.739001795796327</v>
+        <v>2.289479076228474</v>
       </c>
       <c r="G15">
-        <v>0.000783830923740527</v>
+        <v>0.002480637173515786</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.474427174454476</v>
+        <v>1.651380263235495</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.109687667566362</v>
+        <v>0.382626767507162</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.970374829570943</v>
+        <v>1.335323747457167</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7478628650602275</v>
+        <v>0.2695620115706561</v>
       </c>
       <c r="C16">
-        <v>0.2902111594743246</v>
+        <v>0.09786050194526297</v>
       </c>
       <c r="D16">
-        <v>0.08365748449491406</v>
+        <v>0.08174307376116019</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.528084595232656</v>
+        <v>2.236497557723226</v>
       </c>
       <c r="G16">
-        <v>0.0007891747984099621</v>
+        <v>0.002483218093468153</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.345950714129444</v>
+        <v>1.61831546238777</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.033064401362935</v>
+        <v>0.3646492874858893</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.552093346154422</v>
+        <v>1.257943659540743</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7145518263959048</v>
+        <v>0.2618654938666225</v>
       </c>
       <c r="C17">
-        <v>0.2768875302961646</v>
+        <v>0.0946003303582188</v>
       </c>
       <c r="D17">
-        <v>0.08307744173835374</v>
+        <v>0.08133112797690956</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.400993335848341</v>
+        <v>2.204167086016838</v>
       </c>
       <c r="G17">
-        <v>0.0007924495109693833</v>
+        <v>0.002484834783738954</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.268583260700083</v>
+        <v>1.59812934268011</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9865413398565579</v>
+        <v>0.3536844001288273</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.305770240477244</v>
+        <v>1.210693751294656</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6954907365501128</v>
+        <v>0.2574581472568127</v>
       </c>
       <c r="C18">
-        <v>0.2692871488916069</v>
+        <v>0.09272975962994678</v>
       </c>
       <c r="D18">
-        <v>0.08274487601897818</v>
+        <v>0.08109255211364541</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.328664496703851</v>
+        <v>2.185634189798236</v>
       </c>
       <c r="G18">
-        <v>0.0007943334068149668</v>
+        <v>0.002485776964298973</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.224568614946548</v>
+        <v>1.58655453022196</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9599466021259673</v>
+        <v>0.3474010681876223</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.167381926182401</v>
+        <v>1.183595206794507</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6890532298112078</v>
+        <v>0.2559692430462235</v>
       </c>
       <c r="C19">
-        <v>0.2667240864241478</v>
+        <v>0.09209720213246442</v>
       </c>
       <c r="D19">
-        <v>0.08263243024313738</v>
+        <v>0.08101149233426241</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.3043010108168</v>
+        <v>2.179370000766113</v>
       </c>
       <c r="G19">
-        <v>0.0007949714704327229</v>
+        <v>0.002486098087057301</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.20974516207869</v>
+        <v>1.582641599726614</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.950969041084619</v>
+        <v>0.3452776525910508</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.121049872578411</v>
+        <v>1.174433318759583</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7180874842428864</v>
+        <v>0.2626827846798392</v>
       </c>
       <c r="C20">
-        <v>0.2782992041169905</v>
+        <v>0.094946904952252</v>
       </c>
       <c r="D20">
-        <v>0.08313907216700755</v>
+        <v>0.08137514929979872</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.414441066924979</v>
+        <v>2.207602216566443</v>
       </c>
       <c r="G20">
-        <v>0.0007921009096168634</v>
+        <v>0.002484661411765648</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.276767947399506</v>
+        <v>1.600274486376989</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.991476522307579</v>
+        <v>0.3548492104899594</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.331641141266402</v>
+        <v>1.21571541735824</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8168664833943922</v>
+        <v>0.2854721385462824</v>
       </c>
       <c r="C21">
-        <v>0.3179845900765201</v>
+        <v>0.1045766525136571</v>
       </c>
       <c r="D21">
-        <v>0.08485610915665376</v>
+        <v>0.08257753332307516</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.794233274705419</v>
+        <v>2.303211410610004</v>
       </c>
       <c r="G21">
-        <v>0.0007824486138066126</v>
+        <v>0.002479981121122021</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.508087093334552</v>
+        <v>1.659947531858478</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.129630824751814</v>
+        <v>0.387287925397402</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.081994507064422</v>
+        <v>1.355372002121939</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8824555185293548</v>
+        <v>0.300539678729308</v>
       </c>
       <c r="C22">
-        <v>0.3446149077791461</v>
+        <v>0.1109119206494427</v>
       </c>
       <c r="D22">
-        <v>0.08599455101495579</v>
+        <v>0.08334906171226919</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.051023708145294</v>
+        <v>2.36626610530729</v>
       </c>
       <c r="G22">
-        <v>0.0007761040620457571</v>
+        <v>0.002477031070307056</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.664676988043013</v>
+        <v>1.699272320798386</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.221676431199683</v>
+        <v>0.4086974353307085</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.613388654464799</v>
+        <v>1.447399044972826</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8473475843393885</v>
+        <v>0.2924819910433598</v>
       </c>
       <c r="C23">
-        <v>0.3303312643292884</v>
+        <v>0.10752681844275</v>
       </c>
       <c r="D23">
-        <v>0.08538508604189587</v>
+        <v>0.08293857801708526</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.913090645484687</v>
+        <v>2.33256012132216</v>
       </c>
       <c r="G23">
-        <v>0.0007794958346506827</v>
+        <v>0.002478595650815844</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.580546636984181</v>
+        <v>1.678253860939293</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.172374579194326</v>
+        <v>0.3972516230412566</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.32533249392506</v>
+        <v>1.39821080567377</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7164887351033826</v>
+        <v>0.2623132330421925</v>
       </c>
       <c r="C24">
-        <v>0.2776608022794278</v>
+        <v>0.09479020692015183</v>
       </c>
       <c r="D24">
-        <v>0.08311120629094404</v>
+        <v>0.08135525269054966</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.408359067659944</v>
+        <v>2.206049024951085</v>
       </c>
       <c r="G24">
-        <v>0.000792258508113276</v>
+        <v>0.002484739753662225</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.273066213488903</v>
+        <v>1.599304572123245</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.989244856050675</v>
+        <v>0.3543225357939264</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.319934972408873</v>
+        <v>1.213444916988777</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5790195947622578</v>
+        <v>0.2305163525383307</v>
       </c>
       <c r="C25">
-        <v>0.223203081743236</v>
+        <v>0.08122684784696332</v>
       </c>
       <c r="D25">
-        <v>0.08069638782356492</v>
+        <v>0.07958468695922605</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.892791945001079</v>
+        <v>2.071978597680982</v>
       </c>
       <c r="G25">
-        <v>0.0008060510470190764</v>
+        <v>0.002491838006611993</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.959567446825815</v>
+        <v>1.515505837318386</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7978443388351764</v>
+        <v>0.3089099116644434</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.358408257195961</v>
+        <v>1.017108789993998</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.207740021159978</v>
+        <v>0.4801662695382589</v>
       </c>
       <c r="C2">
-        <v>0.07138426719774316</v>
+        <v>0.1845510994205171</v>
       </c>
       <c r="D2">
-        <v>0.07822539573563958</v>
+        <v>0.07892207081607339</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.975242548751197</v>
+        <v>2.531014208339769</v>
       </c>
       <c r="G2">
-        <v>0.002497474496949351</v>
+        <v>0.000816380094369319</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.454922415997771</v>
+        <v>1.739934119896915</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2762287863254613</v>
+        <v>0.6607852963278447</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8747708651403912</v>
+        <v>2.715383008591559</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1926987310756374</v>
+        <v>0.4142787783971897</v>
       </c>
       <c r="C3">
-        <v>0.0648006365577487</v>
+        <v>0.1590173715291172</v>
       </c>
       <c r="D3">
-        <v>0.07726863338877976</v>
+        <v>0.07771025726934155</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.910881208053169</v>
+        <v>2.294209728407395</v>
       </c>
       <c r="G3">
-        <v>0.002501552774949083</v>
+        <v>0.0008235448375833077</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.414535883213702</v>
+        <v>1.596335910480832</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2545466487636077</v>
+        <v>0.5696946841730437</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7795375386244814</v>
+        <v>2.306234756219339</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.183657522759006</v>
+        <v>0.3742578714444846</v>
       </c>
       <c r="C4">
-        <v>0.06080015844587194</v>
+        <v>0.1435971335218369</v>
       </c>
       <c r="D4">
-        <v>0.07666336017735631</v>
+        <v>0.07695831576218382</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.871942619282279</v>
+        <v>2.152182435752835</v>
       </c>
       <c r="G4">
-        <v>0.002504185139496538</v>
+        <v>0.000828040264503393</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.390061805340309</v>
+        <v>1.510277153465708</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2414623004129623</v>
+        <v>0.51446819975925</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7216214757522437</v>
+        <v>2.064707443000273</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1800220338877381</v>
+        <v>0.3580429814476673</v>
       </c>
       <c r="C5">
-        <v>0.0591803688082706</v>
+        <v>0.1373688853025357</v>
       </c>
       <c r="D5">
-        <v>0.07641218749699874</v>
+        <v>0.07664947536404654</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.856219263163609</v>
+        <v>2.095053059293505</v>
       </c>
       <c r="G5">
-        <v>0.00250529022452832</v>
+        <v>0.0008298983280280152</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.380168816971207</v>
+        <v>1.475675544137033</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2361877269576809</v>
+        <v>0.4921151820864509</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6981536937958168</v>
+        <v>1.968293462118112</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1794213171338015</v>
+        <v>0.3553557579988791</v>
       </c>
       <c r="C6">
-        <v>0.05891203155870528</v>
+        <v>0.1363377964175498</v>
       </c>
       <c r="D6">
-        <v>0.07637020639829473</v>
+        <v>0.07659803459306858</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.853617097813583</v>
+        <v>2.085609203751105</v>
       </c>
       <c r="G6">
-        <v>0.002505475682127707</v>
+        <v>0.0008302084895319291</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.3785309225606</v>
+        <v>1.46995652130235</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2353153532133234</v>
+        <v>0.4884119861210507</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6942647544121598</v>
+        <v>1.952394161450187</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1836082953229266</v>
+        <v>0.3740388308220162</v>
       </c>
       <c r="C7">
-        <v>0.06077827126351565</v>
+        <v>0.1435129234873642</v>
       </c>
       <c r="D7">
-        <v>0.07665999112296262</v>
+        <v>0.07695416097149987</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.871729985490433</v>
+        <v>2.151409065763943</v>
       </c>
       <c r="G7">
-        <v>0.002504199911960844</v>
+        <v>0.0008280652146993202</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.389928060736551</v>
+        <v>1.509808687548016</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2413909333300666</v>
+        <v>0.5141661541486258</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7213044493649647</v>
+        <v>2.063399547131723</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2025134959385753</v>
+        <v>0.4573486391284121</v>
       </c>
       <c r="C8">
-        <v>0.06910547405195189</v>
+        <v>0.1756878452598585</v>
       </c>
       <c r="D8">
-        <v>0.07789917870008267</v>
+        <v>0.0785055982949423</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.952929673337707</v>
+        <v>2.448600825317243</v>
       </c>
       <c r="G8">
-        <v>0.002498854132413942</v>
+        <v>0.0008188317633180823</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.440929441060533</v>
+        <v>1.689943397170381</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.268705292867665</v>
+        <v>0.6292157982421287</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8418145750396206</v>
+        <v>2.572018404180596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2411281542447909</v>
+        <v>0.6249073023672054</v>
       </c>
       <c r="C9">
-        <v>0.08577288742792177</v>
+        <v>0.2412875870807625</v>
       </c>
       <c r="D9">
-        <v>0.08018963292175485</v>
+        <v>0.08150752175270171</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.116827909142074</v>
+        <v>3.0632801455086</v>
       </c>
       <c r="G9">
-        <v>0.002489383588680242</v>
+        <v>0.0008013866638667355</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.54355657612156</v>
+        <v>2.063171060884343</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3240890312779925</v>
+        <v>0.8616288190884234</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.082878266118101</v>
+        <v>3.669992880018043</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2704428777697103</v>
+        <v>0.7516777571631508</v>
       </c>
       <c r="C10">
-        <v>0.09823313525791377</v>
+        <v>0.2917404327633903</v>
       </c>
       <c r="D10">
-        <v>0.08178985892502766</v>
+        <v>0.08372383611899181</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.240195223965088</v>
+        <v>3.542696234522822</v>
       </c>
       <c r="G10">
-        <v>0.002483035282242159</v>
+        <v>0.0007888010637323514</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.620623701656058</v>
+        <v>2.354847919264742</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.365903628074534</v>
+        <v>1.038396194449291</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.263346007126316</v>
+        <v>4.580679878510963</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2839853127052834</v>
+        <v>0.8104080548864374</v>
       </c>
       <c r="C11">
-        <v>0.1039502415716527</v>
+        <v>0.3153748475447173</v>
       </c>
       <c r="D11">
-        <v>0.08250045808006234</v>
+        <v>0.08474401670464005</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.296983085935977</v>
+        <v>3.769153297588616</v>
       </c>
       <c r="G11">
-        <v>0.002480278044737905</v>
+        <v>0.0007830754760194125</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.656061969382449</v>
+        <v>2.492801646971159</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3851737759308946</v>
+        <v>1.120581174259485</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.346279421759206</v>
+        <v>5.031197561469384</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2891432857897769</v>
+        <v>0.8328230662573333</v>
       </c>
       <c r="C12">
-        <v>0.1061223257828203</v>
+        <v>0.3244417774915291</v>
       </c>
       <c r="D12">
-        <v>0.08276709027388307</v>
+        <v>0.0851330252325937</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.318584842779785</v>
+        <v>3.856352212090599</v>
       </c>
       <c r="G12">
-        <v>0.002479252611795422</v>
+        <v>0.0007809017560618248</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.669537347764333</v>
+        <v>2.545952843656565</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3925067990026889</v>
+        <v>1.151999910024927</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.37781308657074</v>
+        <v>5.208626653950603</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2880311013108212</v>
+        <v>0.8279874424524962</v>
       </c>
       <c r="C13">
-        <v>0.1056542092252926</v>
+        <v>0.3224835107904198</v>
       </c>
       <c r="D13">
-        <v>0.08270977488546549</v>
+        <v>0.0850491083643945</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.313928161625199</v>
+        <v>3.837503699593356</v>
       </c>
       <c r="G13">
-        <v>0.002479472628293892</v>
+        <v>0.0007813702574807702</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.666632691278949</v>
+        <v>2.534462440513593</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3909259057083716</v>
+        <v>1.145219399331125</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.37101589742781</v>
+        <v>5.170078754623646</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2844090661969574</v>
+        <v>0.8122485116020357</v>
       </c>
       <c r="C14">
-        <v>0.1041287965007029</v>
+        <v>0.3161183236939564</v>
       </c>
       <c r="D14">
-        <v>0.08252244307755063</v>
+        <v>0.08477596060677683</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.298758314549787</v>
+        <v>3.776296682095676</v>
       </c>
       <c r="G14">
-        <v>0.002480193308198546</v>
+        <v>0.0007828967914351725</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.65716947513593</v>
+        <v>2.497155165103464</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.385776349314142</v>
+        <v>1.12315980393933</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.348871091118397</v>
+        <v>5.045646708843577</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2821943384316228</v>
+        <v>0.8026314420134213</v>
       </c>
       <c r="C15">
-        <v>0.1031953703673594</v>
+        <v>0.3122353230119757</v>
       </c>
       <c r="D15">
-        <v>0.08240737820682398</v>
+        <v>0.08460903158127309</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.289479076228474</v>
+        <v>3.739001795796298</v>
       </c>
       <c r="G15">
-        <v>0.002480637173515786</v>
+        <v>0.0007838309236733323</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.651380263235495</v>
+        <v>2.474427174454448</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.382626767507162</v>
+        <v>1.109687667566362</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.335323747457167</v>
+        <v>4.9703748295709</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2695620115706561</v>
+        <v>0.7478628650602559</v>
       </c>
       <c r="C16">
-        <v>0.09786050194526297</v>
+        <v>0.2902111594746088</v>
       </c>
       <c r="D16">
-        <v>0.08174307376116019</v>
+        <v>0.08365748449478616</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.236497557723226</v>
+        <v>3.528084595232656</v>
       </c>
       <c r="G16">
-        <v>0.002483218093468153</v>
+        <v>0.0007891747983532668</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.61831546238777</v>
+        <v>2.345950714129458</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3646492874858893</v>
+        <v>1.033064401362964</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.257943659540743</v>
+        <v>4.552093346154379</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2618654938666225</v>
+        <v>0.7145518263960469</v>
       </c>
       <c r="C17">
-        <v>0.0946003303582188</v>
+        <v>0.2768875302961646</v>
       </c>
       <c r="D17">
-        <v>0.08133112797690956</v>
+        <v>0.08307744173847453</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.204167086016838</v>
+        <v>3.400993335848341</v>
       </c>
       <c r="G17">
-        <v>0.002484834783738954</v>
+        <v>0.0007924495109448705</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.59812934268011</v>
+        <v>2.268583260700083</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3536844001288273</v>
+        <v>0.9865413398567</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.210693751294656</v>
+        <v>4.305770240477216</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2574581472568127</v>
+        <v>0.6954907365503971</v>
       </c>
       <c r="C18">
-        <v>0.09272975962994678</v>
+        <v>0.2692871488918627</v>
       </c>
       <c r="D18">
-        <v>0.08109255211364541</v>
+        <v>0.08274487601882186</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.185634189798236</v>
+        <v>3.328664496703851</v>
       </c>
       <c r="G18">
-        <v>0.002485776964298973</v>
+        <v>0.0007943334068784414</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.58655453022196</v>
+        <v>2.224568614946577</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3474010681876223</v>
+        <v>0.9599466021258252</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.183595206794507</v>
+        <v>4.167381926182458</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2559692430462235</v>
+        <v>0.6890532298111225</v>
       </c>
       <c r="C19">
-        <v>0.09209720213246442</v>
+        <v>0.2667240864244036</v>
       </c>
       <c r="D19">
-        <v>0.08101149233426241</v>
+        <v>0.0826324302432937</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.179370000766113</v>
+        <v>3.304301010816744</v>
       </c>
       <c r="G19">
-        <v>0.002486098087057301</v>
+        <v>0.0007949714704290162</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.582641599726614</v>
+        <v>2.209745162078676</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3452776525910508</v>
+        <v>0.9509690410846474</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.174433318759583</v>
+        <v>4.121049872578396</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2626827846798392</v>
+        <v>0.7180874842430853</v>
       </c>
       <c r="C20">
-        <v>0.094946904952252</v>
+        <v>0.2782992041171894</v>
       </c>
       <c r="D20">
-        <v>0.08137514929979872</v>
+        <v>0.08313907216686545</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.207602216566443</v>
+        <v>3.414441066925065</v>
       </c>
       <c r="G20">
-        <v>0.002484661411765648</v>
+        <v>0.0007921009095526177</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.600274486376989</v>
+        <v>2.276767947399506</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3548492104899594</v>
+        <v>0.9914765223074653</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.21571541735824</v>
+        <v>4.331641141266402</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2854721385462824</v>
+        <v>0.8168664833944206</v>
       </c>
       <c r="C21">
-        <v>0.1045766525136571</v>
+        <v>0.3179845900759801</v>
       </c>
       <c r="D21">
-        <v>0.08257753332307516</v>
+        <v>0.08485610915666086</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.303211410610004</v>
+        <v>3.794233274705391</v>
       </c>
       <c r="G21">
-        <v>0.002479981121122021</v>
+        <v>0.0007824486138786347</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.659947531858478</v>
+        <v>2.508087093334552</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.387287925397402</v>
+        <v>1.129630824751843</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.355372002121939</v>
+        <v>5.081994507064366</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.300539678729308</v>
+        <v>0.8824555185292979</v>
       </c>
       <c r="C22">
-        <v>0.1109119206494427</v>
+        <v>0.3446149077788903</v>
       </c>
       <c r="D22">
-        <v>0.08334906171226919</v>
+        <v>0.08599455101511211</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.36626610530729</v>
+        <v>4.051023708145266</v>
       </c>
       <c r="G22">
-        <v>0.002477031070307056</v>
+        <v>0.0007761040620435425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.699272320798386</v>
+        <v>2.664676988043027</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4086974353307085</v>
+        <v>1.221676431199739</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.447399044972826</v>
+        <v>5.613388654464785</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2924819910433598</v>
+        <v>0.8473475843393317</v>
       </c>
       <c r="C23">
-        <v>0.10752681844275</v>
+        <v>0.3303312643292884</v>
       </c>
       <c r="D23">
-        <v>0.08293857801708526</v>
+        <v>0.08538508604207351</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.33256012132216</v>
+        <v>3.913090645484687</v>
       </c>
       <c r="G23">
-        <v>0.002478595650815844</v>
+        <v>0.0007794958345127622</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.678253860939293</v>
+        <v>2.580546636984209</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3972516230412566</v>
+        <v>1.172374579194297</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.39821080567377</v>
+        <v>5.32533249392506</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2623132330421925</v>
+        <v>0.7164887351035532</v>
       </c>
       <c r="C24">
-        <v>0.09479020692015183</v>
+        <v>0.2776608022796836</v>
       </c>
       <c r="D24">
-        <v>0.08135525269054966</v>
+        <v>0.08311120629067403</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.206049024951085</v>
+        <v>3.408359067659944</v>
       </c>
       <c r="G24">
-        <v>0.002484739753662225</v>
+        <v>0.0007922585081760761</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.599304572123245</v>
+        <v>2.273066213488903</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3543225357939264</v>
+        <v>0.9892448560506466</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.213444916988777</v>
+        <v>4.319934972408902</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2305163525383307</v>
+        <v>0.5790195947622863</v>
       </c>
       <c r="C25">
-        <v>0.08122684784696332</v>
+        <v>0.2232030817430086</v>
       </c>
       <c r="D25">
-        <v>0.07958468695922605</v>
+        <v>0.08069638782355781</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.071978597680982</v>
+        <v>2.892791945001136</v>
       </c>
       <c r="G25">
-        <v>0.002491838006611993</v>
+        <v>0.0008060510468973467</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.515505837318386</v>
+        <v>1.95956744682583</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3089099116644434</v>
+        <v>0.7978443388351479</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.017108789993998</v>
+        <v>3.358408257195933</v>
       </c>
       <c r="N25">
         <v>0</v>
